--- a/medicine/Enfance/Centre_jeunesse/Centre_jeunesse.xlsx
+++ b/medicine/Enfance/Centre_jeunesse/Centre_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un centre jeunesse ou centre de protection de l’enfance et de la jeunesse est une institution gouvernementale québécoise (Canada) qui aide des jeunes en difficulté. Les jeunes peuvent être accueillis dans un centre jeunesse dès leur naissance et cela jusqu'à leur majorité lorsqu'un ordre d'un tribunal le prévoit.
 En vertu de la Loi sur la protection de la jeunesse, les centres jeunesse ont une mission de protection des enfants mineurs, en regard de la négligence, des abus physiques, des abus sexuels ou de l'abandon dont ils pourraient être victimes. Ils ont également une mission de réadaptation des jeunes contrevenants ayant commis un délit en vertu de la Loi sur le système de justice pénale pour les adolescents. Ils ont la charge d’offrir des services de seconde ligne, des services psychosociaux, de réadaptation et d’intégration sociale aux jeunes, à leur famille, ainsi qu’aux mères en difficulté. Il existe dix-sept centres jeunesse répartis dans les régions administratives du Québec. 
@@ -512,7 +524,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sens de la Loi sur les services de santé et les services sociaux (LSSSS), les centres jeunesse gèrent, sous l'autorité d'un même conseil d'administration, les établissements suivants : un centre de protection de l'enfance et de la jeunesse (CPEJ), un ou des centres de réadaptation pour jeunes en difficultés d'adaptation (CRJD) et un centre de réadaptation pour mères en difficulté d'adaptation (CRMDA).
 Leurs services sont régis par la Loi sur les services de santé et les services sociaux, la Loi sur la protection de la jeunesse (LPJ), la Loi sur le système de justice pénale pour les adolescents (LSJPA) et le Code civil du Québec (CCQ).
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la cadre des réformes de la Révolution tranquille (1960-1970), l’instauration du système public de santé, gratuit et universel, a rendu accessible des services sociaux qui avaient été jusqu’alors essentiellement dispensés par les communautés religieuses et des organismes caritatifs. 
 Les nouveaux centres de services sociaux (CSS) ont pris charge des enfants et des familles qui bénéficiaient de services pour des motifs d’abandon, de pauvreté, etc. Ils ont repris les mesures de placement d’enfants par la consolidation d’un réseau de familles d’accueil. Dans les années 1970, il ressortait assez unanimement que les services sociaux rejoignaient mal les enfants en danger et les familles aux problématiques les plus lourdes. En 1979, le début de l’application de la LPJ et la création de la Direction de la protection de la jeunesse (DPJ) impliquaient que le mandat central des services psychosociaux en CSS, et maintenant en Centres jeunesse, devenait la protection de la jeunesse. Sans énoncer tous les motifs légaux pour les mineurs en besoin de protection énoncés dans la LPJ, il s’agit essentiellement de jeunes abandonnés, négligés, victimes d’abus physiques ou sexuels ou présentant des troubles sérieux de comportements et d’adaptation. À la suite d'un signalement retenu, lorsque après enquête, des motifs de protection sont établis, les situations peuvent être traitées par des ententes volontaires ou par le recours à une décision judiciaire d’un juge de la Chambre de la jeunesse.
@@ -580,7 +596,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avec l'augmentation sensible du nombre de jeunes filles ou de femmes seules avec leur enfant, les centres de réadaptation pour mères en difficulté grave d'adaptation, durant la grossesse ou pendant le développement des premières années de leur enfant (0-5 ans), vise à favoriser l'implication du conjoint et du milieu familial élargi pour maintenir l'enfant dans son milieu, tout en favorisant l'insertion sociale de la mère et son rôle parental. L'intégration de ces services avec ceux de la protection de la jeunesse, dans un même organisme, est favorable à leurs mandats sociaux respectifs.
 La Direction de la protection de la jeunesse est intégrée dans les Centres jeunesse. Outre les services de protection, elle est aussi responsable, via le Service d’adoption, de l’évaluation des familles qui veulent adopter un enfant. En concertation avec la Cour supérieure, responsable de statuer sur des questions de garde ou de droits d’accès dans des situations familiales de divorce ou de séparation. Le Service d’expertise et de médiation familiale répond aux demandes de la Cour en produisant des expertises psycholégales sur les mesures à prendre dans le meilleur intérêt de l'enfant.
